--- a/data/MA/MA_s1_summary.tools.xlsx
+++ b/data/MA/MA_s1_summary.tools.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\Box Sync\Mycoplasma\Experiments\data\MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\GitHub\MinimalCell\data\MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE852C2-0558-4508-A2DF-C3651FFC3DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD98240B-20E5-405D-836F-0080EB679245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19350" yWindow="1755" windowWidth="22410" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MA_s1_summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1281,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW93"/>
+  <dimension ref="A1:AW96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T89" sqref="T89"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14892,6 +14892,18 @@
         <v>1.0735427968700593</v>
       </c>
     </row>
+    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f>_xlfn.STDEV.S(I2:I86)/SQRT(COUNT(I2:I86))</f>
+        <v>1.1618949277853228E-9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f>2*I95</f>
+        <v>2.3237898555706456E-9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/MA/MA_s1_summary.tools.xlsx
+++ b/data/MA/MA_s1_summary.tools.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\GitHub\MinimalCell\data\MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\Box Sync\Mycoplasma\Experiments\data\MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD98240B-20E5-405D-836F-0080EB679245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE852C2-0558-4508-A2DF-C3651FFC3DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19350" yWindow="1755" windowWidth="22410" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MA_s1_summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1281,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW96"/>
+  <dimension ref="A1:AW93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T89" sqref="T89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14892,18 +14892,6 @@
         <v>1.0735427968700593</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="I95">
-        <f>_xlfn.STDEV.S(I2:I86)/SQRT(COUNT(I2:I86))</f>
-        <v>1.1618949277853228E-9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="I96">
-        <f>2*I95</f>
-        <v>2.3237898555706456E-9</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/MA/MA_s1_summary.tools.xlsx
+++ b/data/MA/MA_s1_summary.tools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\Box Sync\Mycoplasma\Experiments\data\MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\GitHub\MinimalCell\data\MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE852C2-0558-4508-A2DF-C3651FFC3DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A180C7A6-2A7C-449D-B96E-A7BB4D6CB048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MA_s1_summary" sheetId="1" r:id="rId1"/>
@@ -1284,8 +1284,8 @@
   <dimension ref="A1:AW93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T89" sqref="T89"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14755,6 +14755,10 @@
         <f>H87/0.0077</f>
         <v>3.3595646742354464</v>
       </c>
+      <c r="I88">
+        <f>_xlfn.STDEV.S(I2:I86)/SQRT(COUNT(I2:I86))</f>
+        <v>1.1618949277853228E-9</v>
+      </c>
       <c r="J88">
         <f>J87/(9.78*10^-9)</f>
         <v>2.8554760629403377</v>
